--- a/q_rc.xlsx
+++ b/q_rc.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>thisQuestion</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <r>
@@ -1376,7 +1379,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1399,7 +1402,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="61.55" customHeight="1">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
@@ -1410,7 +1413,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="76.35" customHeight="1">
+    <row r="3" ht="61.35" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
@@ -1421,7 +1424,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="58.35" customHeight="1">
+    <row r="4" ht="76.35" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>3</v>
       </c>
@@ -1432,8 +1435,8 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="64.35" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" ht="58.35" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
@@ -1443,8 +1446,10 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="11"/>
+    <row r="6" ht="64.35" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>5</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1596,6 +1601,15 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
